--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Tgfbr3</t>
   </si>
   <si>
-    <t>M1</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H2">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I2">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J2">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.0868983542685</v>
+        <v>24.43316566666667</v>
       </c>
       <c r="N2">
-        <v>19.0868983542685</v>
+        <v>73.299497</v>
       </c>
       <c r="O2">
-        <v>0.2106170354463769</v>
+        <v>0.2327873509383368</v>
       </c>
       <c r="P2">
-        <v>0.2106170354463769</v>
+        <v>0.2542402694696193</v>
       </c>
       <c r="Q2">
-        <v>33.48814792256325</v>
+        <v>44.79701202471567</v>
       </c>
       <c r="R2">
-        <v>33.48814792256325</v>
+        <v>403.173108222441</v>
       </c>
       <c r="S2">
-        <v>0.01941662613989229</v>
+        <v>0.02074828870994755</v>
       </c>
       <c r="T2">
-        <v>0.01941662613989229</v>
+        <v>0.02707949347459022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H3">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I3">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J3">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>48.2327932854128</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N3">
-        <v>48.2327932854128</v>
+        <v>161.160385</v>
       </c>
       <c r="O3">
-        <v>0.5322314681263929</v>
+        <v>0.511819325313412</v>
       </c>
       <c r="P3">
-        <v>0.5322314681263929</v>
+        <v>0.558986915152059</v>
       </c>
       <c r="Q3">
-        <v>84.62490270972172</v>
+        <v>98.49322301287835</v>
       </c>
       <c r="R3">
-        <v>84.62490270972172</v>
+        <v>886.439007115905</v>
       </c>
       <c r="S3">
-        <v>0.04906601887446679</v>
+        <v>0.04561835119531995</v>
       </c>
       <c r="T3">
-        <v>0.04906601887446679</v>
+        <v>0.0595384930672846</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H4">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I4">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J4">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.100611386345226</v>
+        <v>0.1891813333333333</v>
       </c>
       <c r="N4">
-        <v>0.100611386345226</v>
+        <v>0.567544</v>
       </c>
       <c r="O4">
-        <v>0.001110210340667668</v>
+        <v>0.001802427979839308</v>
       </c>
       <c r="P4">
-        <v>0.001110210340667668</v>
+        <v>0.001968533829036584</v>
       </c>
       <c r="Q4">
-        <v>0.1765236512547151</v>
+        <v>0.3468547047813333</v>
       </c>
       <c r="R4">
-        <v>0.1765236512547151</v>
+        <v>3.121692343032</v>
       </c>
       <c r="S4">
-        <v>0.0001023494565655629</v>
+        <v>0.0001606500351236854</v>
       </c>
       <c r="T4">
-        <v>0.0001023494565655629</v>
+        <v>0.0002096713439185378</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H5">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I5">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J5">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>23.2034127328444</v>
+        <v>0.04717133333333334</v>
       </c>
       <c r="N5">
-        <v>23.2034127328444</v>
+        <v>0.141514</v>
       </c>
       <c r="O5">
-        <v>0.2560412860865626</v>
+        <v>0.0004494255831071773</v>
       </c>
       <c r="P5">
-        <v>0.2560412860865626</v>
+        <v>0.0004908431703661446</v>
       </c>
       <c r="Q5">
-        <v>40.71061224738003</v>
+        <v>0.08648632827133333</v>
       </c>
       <c r="R5">
-        <v>40.71061224738003</v>
+        <v>0.7783769544419999</v>
       </c>
       <c r="S5">
-        <v>0.02360425365300389</v>
+        <v>4.005720978548486E-05</v>
       </c>
       <c r="T5">
-        <v>0.02360425365300389</v>
+        <v>5.228040568359098E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.67158210149335</v>
+        <v>1.833451</v>
       </c>
       <c r="H6">
-        <v>7.67158210149335</v>
+        <v>5.500353</v>
       </c>
       <c r="I6">
-        <v>0.4030968845281688</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J6">
-        <v>0.4030968845281688</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.0868983542685</v>
+        <v>26.569517</v>
       </c>
       <c r="N6">
-        <v>19.0868983542685</v>
+        <v>53.139034</v>
       </c>
       <c r="O6">
-        <v>0.2106170354463769</v>
+        <v>0.2531414701853045</v>
       </c>
       <c r="P6">
-        <v>0.2106170354463769</v>
+        <v>0.1843134383789191</v>
       </c>
       <c r="Q6">
-        <v>146.4267077876291</v>
+        <v>48.713907513167</v>
       </c>
       <c r="R6">
-        <v>146.4267077876291</v>
+        <v>292.283445079002</v>
       </c>
       <c r="S6">
-        <v>0.08489907081699341</v>
+        <v>0.02256244717203965</v>
       </c>
       <c r="T6">
-        <v>0.08489907081699341</v>
+        <v>0.01963148702710781</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H7">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I7">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J7">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>48.2327932854128</v>
+        <v>24.43316566666667</v>
       </c>
       <c r="N7">
-        <v>48.2327932854128</v>
+        <v>73.299497</v>
       </c>
       <c r="O7">
-        <v>0.5322314681263929</v>
+        <v>0.2327873509383368</v>
       </c>
       <c r="P7">
-        <v>0.5322314681263929</v>
+        <v>0.2542402694696193</v>
       </c>
       <c r="Q7">
-        <v>370.0218336734014</v>
+        <v>211.1238489360728</v>
       </c>
       <c r="R7">
-        <v>370.0218336734014</v>
+        <v>1900.114640424655</v>
       </c>
       <c r="S7">
-        <v>0.2145408466496023</v>
+        <v>0.09778461493958972</v>
       </c>
       <c r="T7">
-        <v>0.2145408466496023</v>
+        <v>0.1276229514245385</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H8">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I8">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J8">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.100611386345226</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N8">
-        <v>0.100611386345226</v>
+        <v>161.160385</v>
       </c>
       <c r="O8">
-        <v>0.001110210340667668</v>
+        <v>0.511819325313412</v>
       </c>
       <c r="P8">
-        <v>0.001110210340667668</v>
+        <v>0.558986915152059</v>
       </c>
       <c r="Q8">
-        <v>0.7718485106924682</v>
+        <v>464.1887348451974</v>
       </c>
       <c r="R8">
-        <v>0.7718485106924682</v>
+        <v>4177.698613606775</v>
       </c>
       <c r="S8">
-        <v>0.0004475223294940939</v>
+        <v>0.2149947385142497</v>
       </c>
       <c r="T8">
-        <v>0.0004475223294940939</v>
+        <v>0.2805989785498109</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H9">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I9">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J9">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.2034127328444</v>
+        <v>0.1891813333333333</v>
       </c>
       <c r="N9">
-        <v>23.2034127328444</v>
+        <v>0.567544</v>
       </c>
       <c r="O9">
-        <v>0.2560412860865626</v>
+        <v>0.001802427979839308</v>
       </c>
       <c r="P9">
-        <v>0.2560412860865626</v>
+        <v>0.001968533829036584</v>
       </c>
       <c r="Q9">
-        <v>178.006885814852</v>
+        <v>1.634691623062222</v>
       </c>
       <c r="R9">
-        <v>178.006885814852</v>
+        <v>14.71222460756</v>
       </c>
       <c r="S9">
-        <v>0.1032094447320789</v>
+        <v>0.000757127589856101</v>
       </c>
       <c r="T9">
-        <v>0.1032094447320789</v>
+        <v>0.0009881601280741158</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.605516737381491</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H10">
-        <v>9.605516737381491</v>
+        <v>25.922615</v>
       </c>
       <c r="I10">
-        <v>0.5047138673479027</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J10">
-        <v>0.5047138673479027</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>19.0868983542685</v>
+        <v>0.04717133333333334</v>
       </c>
       <c r="N10">
-        <v>19.0868983542685</v>
+        <v>0.141514</v>
       </c>
       <c r="O10">
-        <v>0.2106170354463769</v>
+        <v>0.0004494255831071773</v>
       </c>
       <c r="P10">
-        <v>0.2106170354463769</v>
+        <v>0.0004908431703661446</v>
       </c>
       <c r="Q10">
-        <v>183.3395216066253</v>
+        <v>0.407601437678889</v>
       </c>
       <c r="R10">
-        <v>183.3395216066253</v>
+        <v>3.66841293911</v>
       </c>
       <c r="S10">
-        <v>0.1063013384894912</v>
+        <v>0.000188785633802659</v>
       </c>
       <c r="T10">
-        <v>0.1063013384894912</v>
+        <v>0.0002463923367426674</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.605516737381491</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H11">
-        <v>9.605516737381491</v>
+        <v>25.922615</v>
       </c>
       <c r="I11">
-        <v>0.5047138673479027</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J11">
-        <v>0.5047138673479027</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>48.2327932854128</v>
+        <v>26.569517</v>
       </c>
       <c r="N11">
-        <v>48.2327932854128</v>
+        <v>53.139034</v>
       </c>
       <c r="O11">
-        <v>0.5322314681263929</v>
+        <v>0.2531414701853045</v>
       </c>
       <c r="P11">
-        <v>0.5322314681263929</v>
+        <v>0.1843134383789191</v>
       </c>
       <c r="Q11">
-        <v>463.3009031936942</v>
+        <v>229.5837866423184</v>
       </c>
       <c r="R11">
-        <v>463.3009031936942</v>
+        <v>1377.50271985391</v>
       </c>
       <c r="S11">
-        <v>0.2686246026023237</v>
+        <v>0.1063345627996281</v>
       </c>
       <c r="T11">
-        <v>0.2686246026023237</v>
+        <v>0.09252124001517907</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>9.605516737381491</v>
+        <v>0.025497</v>
       </c>
       <c r="H12">
-        <v>9.605516737381491</v>
+        <v>0.076491</v>
       </c>
       <c r="I12">
-        <v>0.5047138673479027</v>
+        <v>0.001239489010523625</v>
       </c>
       <c r="J12">
-        <v>0.5047138673479027</v>
+        <v>0.001481207739583962</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.100611386345226</v>
+        <v>24.43316566666667</v>
       </c>
       <c r="N12">
-        <v>0.100611386345226</v>
+        <v>73.299497</v>
       </c>
       <c r="O12">
-        <v>0.001110210340667668</v>
+        <v>0.2327873509383368</v>
       </c>
       <c r="P12">
-        <v>0.001110210340667668</v>
+        <v>0.2542402694696193</v>
       </c>
       <c r="Q12">
-        <v>0.9664243555102239</v>
+        <v>0.6229724250030001</v>
       </c>
       <c r="R12">
-        <v>0.9664243555102239</v>
+        <v>5.606751825027001</v>
       </c>
       <c r="S12">
-        <v>0.0005603385546080113</v>
+        <v>0.0002885373632769749</v>
       </c>
       <c r="T12">
-        <v>0.0005603385546080113</v>
+        <v>0.0003765826548523123</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.025497</v>
+      </c>
+      <c r="H13">
+        <v>0.076491</v>
+      </c>
+      <c r="I13">
+        <v>0.001239489010523625</v>
+      </c>
+      <c r="J13">
+        <v>0.001481207739583962</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>53.72012833333334</v>
+      </c>
+      <c r="N13">
+        <v>161.160385</v>
+      </c>
+      <c r="O13">
+        <v>0.511819325313412</v>
+      </c>
+      <c r="P13">
+        <v>0.558986915152059</v>
+      </c>
+      <c r="Q13">
+        <v>1.369702112115</v>
+      </c>
+      <c r="R13">
+        <v>12.327319009035</v>
+      </c>
+      <c r="S13">
+        <v>0.0006343944290995903</v>
+      </c>
+      <c r="T13">
+        <v>0.0008279757450493935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.025497</v>
+      </c>
+      <c r="H14">
+        <v>0.076491</v>
+      </c>
+      <c r="I14">
+        <v>0.001239489010523625</v>
+      </c>
+      <c r="J14">
+        <v>0.001481207739583962</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1891813333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.567544</v>
+      </c>
+      <c r="O14">
+        <v>0.001802427979839308</v>
+      </c>
+      <c r="P14">
+        <v>0.001968533829036584</v>
+      </c>
+      <c r="Q14">
+        <v>0.004823556456</v>
+      </c>
+      <c r="R14">
+        <v>0.043412008104</v>
+      </c>
+      <c r="S14">
+        <v>2.23408967327112E-06</v>
+      </c>
+      <c r="T14">
+        <v>2.915807543201842E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.025497</v>
+      </c>
+      <c r="H15">
+        <v>0.076491</v>
+      </c>
+      <c r="I15">
+        <v>0.001239489010523625</v>
+      </c>
+      <c r="J15">
+        <v>0.001481207739583962</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.04717133333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.141514</v>
+      </c>
+      <c r="O15">
+        <v>0.0004494255831071773</v>
+      </c>
+      <c r="P15">
+        <v>0.0004908431703661446</v>
+      </c>
+      <c r="Q15">
+        <v>0.001202727486</v>
+      </c>
+      <c r="R15">
+        <v>0.010824547374</v>
+      </c>
+      <c r="S15">
+        <v>5.570580713095183E-07</v>
+      </c>
+      <c r="T15">
+        <v>7.270407028682628E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.025497</v>
+      </c>
+      <c r="H16">
+        <v>0.076491</v>
+      </c>
+      <c r="I16">
+        <v>0.001239489010523625</v>
+      </c>
+      <c r="J16">
+        <v>0.001481207739583962</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>26.569517</v>
+      </c>
+      <c r="N16">
+        <v>53.139034</v>
+      </c>
+      <c r="O16">
+        <v>0.2531414701853045</v>
+      </c>
+      <c r="P16">
+        <v>0.1843134383789191</v>
+      </c>
+      <c r="Q16">
+        <v>0.6774429749490001</v>
+      </c>
+      <c r="R16">
+        <v>4.064657849694</v>
+      </c>
+      <c r="S16">
+        <v>0.0003137660704024787</v>
+      </c>
+      <c r="T16">
+        <v>0.0002730064914361867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10.070754</v>
+      </c>
+      <c r="H17">
+        <v>20.141508</v>
+      </c>
+      <c r="I17">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J17">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>24.43316566666667</v>
+      </c>
+      <c r="N17">
+        <v>73.299497</v>
+      </c>
+      <c r="O17">
+        <v>0.2327873509383368</v>
+      </c>
+      <c r="P17">
+        <v>0.2542402694696193</v>
+      </c>
+      <c r="Q17">
+        <v>246.060400870246</v>
+      </c>
+      <c r="R17">
+        <v>1476.362405221476</v>
+      </c>
+      <c r="S17">
+        <v>0.1139659099255225</v>
+      </c>
+      <c r="T17">
+        <v>0.09916124191563827</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>10.070754</v>
+      </c>
+      <c r="H18">
+        <v>20.141508</v>
+      </c>
+      <c r="I18">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J18">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>53.72012833333334</v>
+      </c>
+      <c r="N18">
+        <v>161.160385</v>
+      </c>
+      <c r="O18">
+        <v>0.511819325313412</v>
+      </c>
+      <c r="P18">
+        <v>0.558986915152059</v>
+      </c>
+      <c r="Q18">
+        <v>541.0021972934302</v>
+      </c>
+      <c r="R18">
+        <v>3246.013183760581</v>
+      </c>
+      <c r="S18">
+        <v>0.2505718411747427</v>
+      </c>
+      <c r="T18">
+        <v>0.2180214677899141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>9.605516737381491</v>
-      </c>
-      <c r="H13">
-        <v>9.605516737381491</v>
-      </c>
-      <c r="I13">
-        <v>0.5047138673479027</v>
-      </c>
-      <c r="J13">
-        <v>0.5047138673479027</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>23.2034127328444</v>
-      </c>
-      <c r="N13">
-        <v>23.2034127328444</v>
-      </c>
-      <c r="O13">
-        <v>0.2560412860865626</v>
-      </c>
-      <c r="P13">
-        <v>0.2560412860865626</v>
-      </c>
-      <c r="Q13">
-        <v>222.8807693697077</v>
-      </c>
-      <c r="R13">
-        <v>222.8807693697077</v>
-      </c>
-      <c r="S13">
-        <v>0.1292275877014797</v>
-      </c>
-      <c r="T13">
-        <v>0.1292275877014797</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>10.070754</v>
+      </c>
+      <c r="H19">
+        <v>20.141508</v>
+      </c>
+      <c r="I19">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J19">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1891813333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.567544</v>
+      </c>
+      <c r="O19">
+        <v>0.001802427979839308</v>
+      </c>
+      <c r="P19">
+        <v>0.001968533829036584</v>
+      </c>
+      <c r="Q19">
+        <v>1.905198669392</v>
+      </c>
+      <c r="R19">
+        <v>11.431192016352</v>
+      </c>
+      <c r="S19">
+        <v>0.0008824162651862503</v>
+      </c>
+      <c r="T19">
+        <v>0.0007677865495007287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>10.070754</v>
+      </c>
+      <c r="H20">
+        <v>20.141508</v>
+      </c>
+      <c r="I20">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J20">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.04717133333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.141514</v>
+      </c>
+      <c r="O20">
+        <v>0.0004494255831071773</v>
+      </c>
+      <c r="P20">
+        <v>0.0004908431703661446</v>
+      </c>
+      <c r="Q20">
+        <v>0.4750508938520001</v>
+      </c>
+      <c r="R20">
+        <v>2.850305363112</v>
+      </c>
+      <c r="S20">
+        <v>0.0002200256814477239</v>
+      </c>
+      <c r="T20">
+        <v>0.0001914433872370179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>10.070754</v>
+      </c>
+      <c r="H21">
+        <v>20.141508</v>
+      </c>
+      <c r="I21">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J21">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.569517</v>
+      </c>
+      <c r="N21">
+        <v>53.139034</v>
+      </c>
+      <c r="O21">
+        <v>0.2531414701853045</v>
+      </c>
+      <c r="P21">
+        <v>0.1843134383789191</v>
+      </c>
+      <c r="Q21">
+        <v>267.575069605818</v>
+      </c>
+      <c r="R21">
+        <v>1070.300278423272</v>
+      </c>
+      <c r="S21">
+        <v>0.1239306941432343</v>
+      </c>
+      <c r="T21">
+        <v>0.07188770484519597</v>
       </c>
     </row>
   </sheetData>
